--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/66.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/66.xlsx
@@ -479,13 +479,13 @@
         <v>-3.705025988265489</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.664630738593122</v>
+        <v>-6.226394830063468</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.268787408606487</v>
+        <v>-6.685673024148325</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.65779536136648</v>
+        <v>-13.06560209115645</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-3.713649451573494</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.539019838727127</v>
+        <v>-7.093381973800963</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.936520723917213</v>
+        <v>-6.385067547929192</v>
       </c>
       <c r="G3" t="n">
-        <v>-13.47929029620733</v>
+        <v>-13.82904495845956</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.861895057177708</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.627752777920417</v>
+        <v>-8.207347077434401</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.940813271946364</v>
+        <v>-6.44047466275194</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.91081359830871</v>
+        <v>-14.21669431293724</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.12775190322418</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.475389232478664</v>
+        <v>-9.003370286498626</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.525795257027688</v>
+        <v>-5.984168984842166</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.90086682290019</v>
+        <v>-15.15521251614457</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.473956310328783</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.47659428173358</v>
+        <v>-10.09112053531167</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.1256300449707</v>
+        <v>-5.629168418221738</v>
       </c>
       <c r="G6" t="n">
-        <v>-15.61635831085259</v>
+        <v>-15.80333837847775</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.847262285668634</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.33520655670804</v>
+        <v>-10.97381116910569</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.092502134440484</v>
+        <v>-5.651564958679076</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.11419610209681</v>
+        <v>-16.2452703761988</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.191741658693533</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.42988941725837</v>
+        <v>-12.0419418333618</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.642649945595039</v>
+        <v>-5.175131239498214</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.25629255124247</v>
+        <v>-17.34943791007094</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-5.447843729775264</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.90423553050706</v>
+        <v>-12.53005050094086</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.25500548012422</v>
+        <v>-4.764620888910834</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.75381255704034</v>
+        <v>-17.78990809473877</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.557638424013851</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.67437144821097</v>
+        <v>-13.37146324975752</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.056678027560948</v>
+        <v>-4.60138183863141</v>
       </c>
       <c r="G10" t="n">
-        <v>-18.42288292479138</v>
+        <v>-18.46117851557993</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.480578407937457</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.105576964866</v>
+        <v>-13.81946739400727</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.174463980998663</v>
+        <v>-4.701010020565403</v>
       </c>
       <c r="G11" t="n">
-        <v>-18.77018330559642</v>
+        <v>-18.81606174603555</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.199982368519348</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.98980274681624</v>
+        <v>-14.76206302894161</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.729667025253608</v>
+        <v>-4.212256004079916</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.81907826327244</v>
+        <v>-18.87461249227372</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-4.725880860200383</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.66013936734581</v>
+        <v>-15.4524054655706</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.919233377511368</v>
+        <v>-4.350355781049663</v>
       </c>
       <c r="G13" t="n">
-        <v>-18.64897504735186</v>
+        <v>-18.70404482070079</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.102739122994636</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.33082310736294</v>
+        <v>-16.15208101630853</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.785783046072058</v>
+        <v>-4.15673644209923</v>
       </c>
       <c r="G14" t="n">
-        <v>-18.21438633794493</v>
+        <v>-18.32054134404625</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.40102605059515</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.76678073869261</v>
+        <v>-16.56533898875512</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.592359267396302</v>
+        <v>-3.993844511307358</v>
       </c>
       <c r="G15" t="n">
-        <v>-17.19431461119059</v>
+        <v>-17.33435043487964</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.700930136207009</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.69031413585285</v>
+        <v>-17.60333381468356</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.507138988699107</v>
+        <v>-3.902708534301196</v>
       </c>
       <c r="G16" t="n">
-        <v>-16.31132574797768</v>
+        <v>-16.54934215828657</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.084672490811045</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.34890736188809</v>
+        <v>-18.29235621945849</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.237705820263424</v>
+        <v>-3.61562605107595</v>
       </c>
       <c r="G17" t="n">
-        <v>-15.20799912328665</v>
+        <v>-15.50371559263887</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.618847100880108</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.11546941557229</v>
+        <v>-19.10240110021703</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.740058700287019</v>
+        <v>-3.063050938949755</v>
       </c>
       <c r="G18" t="n">
-        <v>-14.00204735545221</v>
+        <v>-14.28163499115048</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.339789326827738</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.49680941575044</v>
+        <v>-20.51561253616059</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.813608919592888</v>
+        <v>-3.114805965642917</v>
       </c>
       <c r="G19" t="n">
-        <v>-12.96951355019411</v>
+        <v>-13.3323071937604</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.261806868331447</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.573886962573</v>
+        <v>-21.62096320969453</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.550086560459305</v>
+        <v>-2.918077218325126</v>
       </c>
       <c r="G20" t="n">
-        <v>-11.45471344056291</v>
+        <v>-11.80280095147353</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.377105085072044</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.33576534767869</v>
+        <v>-22.45285706214131</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.213541994761481</v>
+        <v>-2.539795201004449</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.58496889695248</v>
+        <v>-10.94141172059865</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.654736892880146</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.05486492269888</v>
+        <v>-23.1400656453686</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.432936177914289</v>
+        <v>-2.824799856311256</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.668597894852276</v>
+        <v>-10.08932138078464</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.0576076009974</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.4150233915639</v>
+        <v>-23.46807889408366</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.215003807814688</v>
+        <v>-2.61990157851885</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.620785943135063</v>
+        <v>-8.988282811307327</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.543271142281785</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.08984323139044</v>
+        <v>-24.19952321144281</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.03768441775855</v>
+        <v>-2.399695820226134</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.167061660851022</v>
+        <v>-8.495187356724019</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.063791401663332</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.47254491091881</v>
+        <v>-24.51518193980517</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.30575844228523</v>
+        <v>-2.714904759956741</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.775354430673796</v>
+        <v>-8.077935065667162</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.579430072576359</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.99450506204438</v>
+        <v>-25.12006453640049</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.29282701912224</v>
+        <v>-2.730417578745463</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.704194935725849</v>
+        <v>-8.026678717674425</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.05624398892865</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.70764747313501</v>
+        <v>-24.72579057761813</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.27279675798849</v>
+        <v>-2.66302261908504</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.786442698247959</v>
+        <v>-8.057836358437275</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.465659604514609</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.83105089546281</v>
+        <v>-24.84454944342237</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.188774285973689</v>
+        <v>-2.585526971237571</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.1574596513644</v>
+        <v>-8.426711926546007</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.789208806054701</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.74235942189011</v>
+        <v>-24.75994029058354</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.502042289978132</v>
+        <v>-2.913872672419579</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.601366807859677</v>
+        <v>-8.83766228775141</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.01402292253683</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.80229375707162</v>
+        <v>-24.82523786629805</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.538040047539226</v>
+        <v>-2.942233801254553</v>
       </c>
       <c r="G30" t="n">
-        <v>-9.235373218361207</v>
+        <v>-9.494544361383236</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.130732168698255</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.68876123960812</v>
+        <v>-24.61241450837437</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.495339461563591</v>
+        <v>-2.89813495931498</v>
       </c>
       <c r="G31" t="n">
-        <v>-9.958374220861192</v>
+        <v>-10.16338005680467</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.135120907555555</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.40603975050816</v>
+        <v>-24.34005282482541</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.531547446419963</v>
+        <v>-2.883419048645566</v>
       </c>
       <c r="G32" t="n">
-        <v>-10.11091612411581</v>
+        <v>-10.25730765673184</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.026307235300465</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.40853314401029</v>
+        <v>-24.33917280358937</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.383518096503512</v>
+        <v>-2.755781746371017</v>
       </c>
       <c r="G33" t="n">
-        <v>-10.96774880059072</v>
+        <v>-11.13352524543407</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.805763090064867</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.59765713208438</v>
+        <v>-23.51822543751761</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.705801429170546</v>
+        <v>-3.109056493567425</v>
       </c>
       <c r="G34" t="n">
-        <v>-11.09527365570733</v>
+        <v>-11.21709792881711</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.48140661576599</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.23565550763053</v>
+        <v>-23.17898702903612</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.560974378751924</v>
+        <v>-2.911301054807582</v>
       </c>
       <c r="G35" t="n">
-        <v>-11.48547996077641</v>
+        <v>-11.52888945274775</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.066556384265725</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.01610487625798</v>
+        <v>-22.92375153654195</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.670615246749359</v>
+        <v>-3.024530453845332</v>
       </c>
       <c r="G36" t="n">
-        <v>-11.31491228920348</v>
+        <v>-11.31484873211421</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.579103589172452</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.46840899298496</v>
+        <v>-22.42815291044278</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.672306843125312</v>
+        <v>-3.076774381225185</v>
       </c>
       <c r="G37" t="n">
-        <v>-11.51443754844915</v>
+        <v>-11.47915358589062</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.045769422747417</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.05961468380787</v>
+        <v>-22.02090352743564</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.726965939897421</v>
+        <v>-3.126916035652265</v>
       </c>
       <c r="G38" t="n">
-        <v>-11.45227871514319</v>
+        <v>-11.40704562361049</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.496458215643096</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.62876606465412</v>
+        <v>-21.5488405803938</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.601196238246034</v>
+        <v>-3.017353391764701</v>
       </c>
       <c r="G39" t="n">
-        <v>-11.44842617773206</v>
+        <v>-11.44792261002477</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.96012531279792</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.08901481753984</v>
+        <v>-20.96986972019313</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.767715812133157</v>
+        <v>-3.179340856286194</v>
       </c>
       <c r="G40" t="n">
-        <v>-11.47654774523056</v>
+        <v>-11.45033777941702</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.466187210638569</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.45511107618252</v>
+        <v>-20.36075813265793</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.621749623114544</v>
+        <v>-3.008675404575927</v>
       </c>
       <c r="G41" t="n">
-        <v>-11.60918161252309</v>
+        <v>-11.58384677893874</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.036800347243314</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.42960023835096</v>
+        <v>-20.31665440171149</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.351812886971569</v>
+        <v>-2.719153306924091</v>
       </c>
       <c r="G42" t="n">
-        <v>-11.56630013329338</v>
+        <v>-11.54712055935447</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.6874947470688634</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.93572254266894</v>
+        <v>-19.84716307228165</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.563296657013709</v>
+        <v>-2.94716680918327</v>
       </c>
       <c r="G43" t="n">
-        <v>-11.78783081244703</v>
+        <v>-11.78107909396382</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.43075494598923</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.69900660818666</v>
+        <v>-19.60181804067925</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.398615349708546</v>
+        <v>-2.737589751819227</v>
       </c>
       <c r="G44" t="n">
-        <v>-11.75937679248159</v>
+        <v>-11.77373580564971</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2680867412795577</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.24652413364681</v>
+        <v>-19.20118837296991</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.419501187044006</v>
+        <v>-2.767945595455902</v>
       </c>
       <c r="G45" t="n">
-        <v>-11.48355858107771</v>
+        <v>-11.51941944644653</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1911673275452195</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.0028218083517</v>
+        <v>-18.97420156215278</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.531865231866313</v>
+        <v>-2.834108525385862</v>
       </c>
       <c r="G46" t="n">
-        <v>-11.31185665991166</v>
+        <v>-11.35009847162467</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.1864495979180321</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.43082267194325</v>
+        <v>-18.39990948152375</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.538426279081713</v>
+        <v>-2.885506654577739</v>
       </c>
       <c r="G47" t="n">
-        <v>-11.35089537974397</v>
+        <v>-11.43031729629701</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2324393207629595</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.7032064469609</v>
+        <v>-17.6598360670445</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.540244989636205</v>
+        <v>-2.882812811794068</v>
       </c>
       <c r="G48" t="n">
-        <v>-10.94588516188187</v>
+        <v>-11.03262592171468</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3048822211392228</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.58921925185878</v>
+        <v>-17.60965041155562</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.538475169150382</v>
+        <v>-2.83032443407087</v>
       </c>
       <c r="G49" t="n">
-        <v>-10.62968375375728</v>
+        <v>-10.68290548251052</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3801239129346654</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.9003532953036</v>
+        <v>-16.88565205165478</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.65462330528768</v>
+        <v>-2.999474293652393</v>
       </c>
       <c r="G50" t="n">
-        <v>-10.64698106005243</v>
+        <v>-10.76362787489015</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.4341649449576532</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.32490252004711</v>
+        <v>-16.32990397407196</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.658920742323698</v>
+        <v>-2.972061632149601</v>
       </c>
       <c r="G51" t="n">
-        <v>-10.34412664067451</v>
+        <v>-10.4292149161863</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.44858216592228</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.78733176999547</v>
+        <v>-15.75398874316311</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.710509542783385</v>
+        <v>-3.016644485768998</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.799628167892463</v>
+        <v>-9.876248683510754</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.4138567152276873</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.45789093127528</v>
+        <v>-15.4032562795375</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.639350047835438</v>
+        <v>-2.945079203251097</v>
       </c>
       <c r="G53" t="n">
-        <v>-9.776879618940708</v>
+        <v>-9.852057877533259</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3292257676573759</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.95925134290489</v>
+        <v>-14.87982942635185</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.739071120899902</v>
+        <v>-2.980891178551249</v>
       </c>
       <c r="G54" t="n">
-        <v>-9.686833890465868</v>
+        <v>-9.736183525780508</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2032502050177195</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.53338951075539</v>
+        <v>-14.45099018902041</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.709003728668375</v>
+        <v>-2.970428703856051</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.81026664683487</v>
+        <v>-9.870244983078182</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.05220782660988078</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.26295409591199</v>
+        <v>-14.19667382981723</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.850956043049251</v>
+        <v>-3.150373490599723</v>
       </c>
       <c r="G56" t="n">
-        <v>-9.652987295926216</v>
+        <v>-9.675662509774968</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1027581205365324</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.88040886460337</v>
+        <v>-13.85055658867398</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.964346779313609</v>
+        <v>-3.226006426830897</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.819130416284587</v>
+        <v>-9.828033297789238</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2387740711263495</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.60787606581406</v>
+        <v>-13.61140103976511</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.887115137836954</v>
+        <v>-3.167030336995302</v>
       </c>
       <c r="G58" t="n">
-        <v>-10.10015542000172</v>
+        <v>-10.06472478723719</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3324044852682349</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.46468194368899</v>
+        <v>-13.46053606586584</v>
       </c>
       <c r="F59" t="n">
-        <v>-3.073053846999463</v>
+        <v>-3.345024409999075</v>
       </c>
       <c r="G59" t="n">
-        <v>-10.33322904436816</v>
+        <v>-10.26837147927167</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3627053726286673</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.2161443906025</v>
+        <v>-13.208962439515</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.074212541626922</v>
+        <v>-3.392834008150636</v>
       </c>
       <c r="G60" t="n">
-        <v>-10.87838264407038</v>
+        <v>-10.76208294872021</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3154784444106272</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.77143543698105</v>
+        <v>-12.73951511114696</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.252749294392922</v>
+        <v>-3.531706248205355</v>
       </c>
       <c r="G61" t="n">
-        <v>-11.24291188507442</v>
+        <v>-11.10376097162829</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1817795793383665</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.49535321920636</v>
+        <v>-12.45591848981783</v>
       </c>
       <c r="F62" t="n">
-        <v>-3.258850774962832</v>
+        <v>-3.524900750646609</v>
       </c>
       <c r="G62" t="n">
-        <v>-11.72064119107502</v>
+        <v>-11.64835722454768</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03841027945430221</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.26660636591714</v>
+        <v>-12.23671986693969</v>
       </c>
       <c r="F63" t="n">
-        <v>-3.365528904798916</v>
+        <v>-3.634839848062926</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.08576200190996</v>
+        <v>-12.01281313044872</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3353913211568729</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.381889147839</v>
+        <v>-12.35616808271216</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.487304287840034</v>
+        <v>-3.766711030284223</v>
       </c>
       <c r="G64" t="n">
-        <v>-12.45390421898866</v>
+        <v>-12.3989860048526</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.694065751555756</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.44540223604709</v>
+        <v>-12.41753489690568</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.519082832474981</v>
+        <v>-3.813469491959397</v>
       </c>
       <c r="G65" t="n">
-        <v>-12.87355701241717</v>
+        <v>-12.79627648087184</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.092831866287843</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.46291465864438</v>
+        <v>-12.44898098907367</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.59239349044437</v>
+        <v>-3.909934486450496</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.13626290740398</v>
+        <v>-13.07926197634261</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.505941371768797</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.3805740049918</v>
+        <v>-12.38944266344838</v>
       </c>
       <c r="F67" t="n">
-        <v>-3.731984414508526</v>
+        <v>-4.011141817602502</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.3152983388704</v>
+        <v>-13.25039188370524</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.909519718346192</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.33307730327972</v>
+        <v>-12.38383008356517</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.58149100513115</v>
+        <v>-3.848034770508486</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.64556541975111</v>
+        <v>-13.62083682301825</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.281454577918029</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.61246448969644</v>
+        <v>-12.68564803348729</v>
       </c>
       <c r="F69" t="n">
-        <v>-3.392266883354074</v>
+        <v>-3.625125391418366</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.99383871292266</v>
+        <v>-13.97130039126618</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.603349820351951</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.58191797479196</v>
+        <v>-12.63209874127397</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.30869419997103</v>
+        <v>-3.575472637677978</v>
       </c>
       <c r="G70" t="n">
-        <v>-14.35462786367352</v>
+        <v>-14.35126422694908</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.865770566194699</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.89597310890197</v>
+        <v>-12.95705636069721</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.287705693491364</v>
+        <v>-3.552758311774291</v>
       </c>
       <c r="G71" t="n">
-        <v>-15.03923549524762</v>
+        <v>-15.08889802700174</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.065554704873279</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.24996165110095</v>
+        <v>-13.28774389616847</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.311583603029376</v>
+        <v>-3.569894280842828</v>
       </c>
       <c r="G72" t="n">
-        <v>-15.22807338548221</v>
+        <v>-15.24693517397476</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.204426484206666</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.68056581991135</v>
+        <v>-13.75777301635367</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.431403383323728</v>
+        <v>-3.683461021354395</v>
       </c>
       <c r="G73" t="n">
-        <v>-15.24246173269154</v>
+        <v>-15.33534308514919</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.291901168601921</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.22134375846768</v>
+        <v>-14.29672246634177</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.463421489295154</v>
+        <v>-3.687939351644489</v>
       </c>
       <c r="G74" t="n">
-        <v>-15.46798184144859</v>
+        <v>-15.57603867122114</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.339226747811609</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.78901612379891</v>
+        <v>-14.9077212105276</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.375482922779955</v>
+        <v>-3.616818968751477</v>
       </c>
       <c r="G75" t="n">
-        <v>-15.64384430745839</v>
+        <v>-15.87374007736133</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.356870118789036</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.00842008496545</v>
+        <v>-15.14029615619361</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.364707551645274</v>
+        <v>-3.605652477067443</v>
       </c>
       <c r="G76" t="n">
-        <v>-15.61252532946893</v>
+        <v>-15.85002350504992</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.358121236087217</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.80579265992494</v>
+        <v>-15.94648361053416</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.542628289546043</v>
+        <v>-3.753535156777887</v>
       </c>
       <c r="G77" t="n">
-        <v>-15.66883202155519</v>
+        <v>-15.89561349408391</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.35243359047004</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.27825650552987</v>
+        <v>-16.42543027924461</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.45815113989262</v>
+        <v>-3.712540834198805</v>
       </c>
       <c r="G78" t="n">
-        <v>-15.64051978278888</v>
+        <v>-15.92991965526905</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.345695294772096</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.19395771368931</v>
+        <v>-17.42009872631846</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.418731077524684</v>
+        <v>-3.55209340684039</v>
       </c>
       <c r="G79" t="n">
-        <v>-15.61087773415478</v>
+        <v>-15.93507266850678</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.343941496110007</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.93773210636681</v>
+        <v>-18.12657977461513</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.702816599540511</v>
+        <v>-3.894827455231729</v>
       </c>
       <c r="G80" t="n">
-        <v>-15.46621202096277</v>
+        <v>-15.78425658467618</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.347832938686004</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.42356249674588</v>
+        <v>-18.61163770190923</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.580894546293386</v>
+        <v>-3.735924954043259</v>
       </c>
       <c r="G81" t="n">
-        <v>-15.23766561695509</v>
+        <v>-15.56851937865983</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.355792209742553</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.12393228645892</v>
+        <v>-19.36301450026479</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.674421247657469</v>
+        <v>-3.849183687122211</v>
       </c>
       <c r="G82" t="n">
-        <v>-15.31603150802487</v>
+        <v>-15.6854253108615</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.370168085319409</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.01661116128205</v>
+        <v>-20.24920566297553</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.807343566355153</v>
+        <v>-3.973804472159873</v>
       </c>
       <c r="G83" t="n">
-        <v>-15.17176180438908</v>
+        <v>-15.55374968891488</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.390578372421935</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.8262404764569</v>
+        <v>-21.0467884652303</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.944382428834779</v>
+        <v>-4.120200893782775</v>
       </c>
       <c r="G84" t="n">
-        <v>-14.9785922540704</v>
+        <v>-15.33597865604188</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.417032725203769</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.07412525618887</v>
+        <v>-22.31007361659305</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.712985733823694</v>
+        <v>-3.850943729594301</v>
       </c>
       <c r="G85" t="n">
-        <v>-14.94362607695823</v>
+        <v>-15.34652424385382</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.453508714344258</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.29871880720686</v>
+        <v>-23.58921381722521</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.998679739098736</v>
+        <v>-4.161948123419361</v>
       </c>
       <c r="G86" t="n">
-        <v>-14.63178077395206</v>
+        <v>-14.95493923884827</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.499313661943571</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.31333440229772</v>
+        <v>-24.58443472207502</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.861323091172761</v>
+        <v>-3.982458014314312</v>
       </c>
       <c r="G87" t="n">
-        <v>-14.87893962710208</v>
+        <v>-15.20076339312362</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.553045772017717</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.3702985748698</v>
+        <v>-25.6571659417929</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.649976213322895</v>
+        <v>-3.74715989182343</v>
       </c>
       <c r="G88" t="n">
-        <v>-14.61497725735047</v>
+        <v>-14.93047464848622</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.617505993837153</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.74644644975528</v>
+        <v>-27.06418789504295</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.905940167840227</v>
+        <v>-3.996117899500473</v>
       </c>
       <c r="G89" t="n">
-        <v>-14.42826608510299</v>
+        <v>-14.70620123648024</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.691473894567539</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.387158042237</v>
+        <v>-28.71519818048983</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.78029758036738</v>
+        <v>-3.88211603737775</v>
       </c>
       <c r="G90" t="n">
-        <v>-14.44603273605736</v>
+        <v>-14.75168855637001</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.774097451674737</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.75263810413888</v>
+        <v>-30.02670116207753</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.62226532240122</v>
+        <v>-3.689049156203279</v>
       </c>
       <c r="G91" t="n">
-        <v>-14.14140360718675</v>
+        <v>-14.4612619924478</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.870178005309332</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.4733460714805</v>
+        <v>-31.83995314040298</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.645013871352976</v>
+        <v>-3.726503837810714</v>
       </c>
       <c r="G92" t="n">
-        <v>-14.08128837875117</v>
+        <v>-14.34321692164614</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.979962234792602</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.32969708984124</v>
+        <v>-33.68854530486593</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.531833362383895</v>
+        <v>-3.590217882388593</v>
       </c>
       <c r="G93" t="n">
-        <v>-14.18330239603621</v>
+        <v>-14.41608267999064</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.103578098489484</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.90797117562559</v>
+        <v>-35.22517238565447</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.452279442645455</v>
+        <v>-3.483999319197999</v>
       </c>
       <c r="G94" t="n">
-        <v>-14.31952968337593</v>
+        <v>-14.53893364454247</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.246129853046765</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.04323759124039</v>
+        <v>-37.41855198139285</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.201815620853402</v>
+        <v>-3.215392392922825</v>
       </c>
       <c r="G95" t="n">
-        <v>-14.15467237182356</v>
+        <v>-14.36894776478671</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.405017541662316</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.89755967175136</v>
+        <v>-39.28998314143459</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.209926483245614</v>
+        <v>-3.206885520974393</v>
       </c>
       <c r="G96" t="n">
-        <v>-14.09228864420173</v>
+        <v>-14.25661305400561</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.576816265061143</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.93814313587806</v>
+        <v>-41.3224068531004</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.275859629852829</v>
+        <v>-3.277849455647663</v>
       </c>
       <c r="G97" t="n">
-        <v>-14.36146269527346</v>
+        <v>-14.54713739806516</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.755958304513459</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.21781859182436</v>
+        <v>-43.62658845596712</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.086791956295494</v>
+        <v>-3.042918008671799</v>
       </c>
       <c r="G98" t="n">
-        <v>-14.34729435337314</v>
+        <v>-14.41904541815199</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.930899902280868</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.27890166174403</v>
+        <v>-45.73467932691217</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.951170905807273</v>
+        <v>-2.906299600782728</v>
       </c>
       <c r="G99" t="n">
-        <v>-14.7382731215272</v>
+        <v>-14.84062448028606</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.07924644260111</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.72328164777812</v>
+        <v>-48.16614377905559</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.552501729851561</v>
+        <v>-2.495637690982473</v>
       </c>
       <c r="G100" t="n">
-        <v>-15.10565265353465</v>
+        <v>-15.28578811154614</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.188896163530035</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.84789858418506</v>
+        <v>-50.27409653555665</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.07273859699433</v>
+        <v>-2.002077780746808</v>
       </c>
       <c r="G101" t="n">
-        <v>-15.20928004308579</v>
+        <v>-15.34111700225901</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.222637818376628</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.10638019536329</v>
+        <v>-52.47415451467525</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.090974592607923</v>
+        <v>-2.012012242700379</v>
       </c>
       <c r="G102" t="n">
-        <v>-15.99865909181787</v>
+        <v>-16.19144729960093</v>
       </c>
     </row>
   </sheetData>
